--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
@@ -546,10 +546,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N2">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q2">
-        <v>0.03406838902044444</v>
+        <v>0.06857938466133334</v>
       </c>
       <c r="R2">
-        <v>0.306615501184</v>
+        <v>0.617214461952</v>
       </c>
       <c r="S2">
-        <v>3.53836703271816E-06</v>
+        <v>1.258842974870349E-05</v>
       </c>
       <c r="T2">
-        <v>3.53836703271816E-06</v>
+        <v>1.258842974870349E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J3">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N3">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O3">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P3">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q3">
-        <v>13.78616589205333</v>
+        <v>20.01958745130667</v>
       </c>
       <c r="R3">
-        <v>124.07549302848</v>
+        <v>180.17628706176</v>
       </c>
       <c r="S3">
-        <v>0.001431840961741745</v>
+        <v>0.00367479485961168</v>
       </c>
       <c r="T3">
-        <v>0.001431840961741744</v>
+        <v>0.00367479485961168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.846464</v>
       </c>
       <c r="I4">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J4">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N4">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q4">
-        <v>0.01491845774222222</v>
+        <v>0.01352705902933334</v>
       </c>
       <c r="R4">
-        <v>0.13426611968</v>
+        <v>0.121743531264</v>
       </c>
       <c r="S4">
-        <v>1.549441595914636E-06</v>
+        <v>2.483026541259391E-06</v>
       </c>
       <c r="T4">
-        <v>1.549441595914636E-06</v>
+        <v>2.483026541259391E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.846464</v>
       </c>
       <c r="I5">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J5">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N5">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O5">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P5">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q5">
-        <v>17.46770239507911</v>
+        <v>11.07613201654044</v>
       </c>
       <c r="R5">
-        <v>157.209321555712</v>
+        <v>99.685188148864</v>
       </c>
       <c r="S5">
-        <v>0.001814207952568274</v>
+        <v>0.002033134453832441</v>
       </c>
       <c r="T5">
-        <v>0.001814207952568274</v>
+        <v>0.002033134453832441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H6">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I6">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J6">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N6">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q6">
-        <v>6.75795101986011</v>
+        <v>7.340136859440001</v>
       </c>
       <c r="R6">
-        <v>60.82155917874099</v>
+        <v>66.06123173496</v>
       </c>
       <c r="S6">
-        <v>0.0007018855832322281</v>
+        <v>0.001347355297182</v>
       </c>
       <c r="T6">
-        <v>0.000701885583232228</v>
+        <v>0.001347355297182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H7">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I7">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J7">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N7">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O7">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P7">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q7">
-        <v>2734.682693515489</v>
+        <v>2142.72135114345</v>
       </c>
       <c r="R7">
-        <v>24612.14424163939</v>
+        <v>19284.49216029105</v>
       </c>
       <c r="S7">
-        <v>0.2840260830024381</v>
+        <v>0.3933178656110723</v>
       </c>
       <c r="T7">
-        <v>0.284026083002438</v>
+        <v>0.3933178656110723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H8">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I8">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J8">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N8">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q8">
-        <v>2.959288936535556</v>
+        <v>1.44781795683</v>
       </c>
       <c r="R8">
-        <v>26.63360042882</v>
+        <v>13.03036161147</v>
       </c>
       <c r="S8">
-        <v>0.0003073538466125098</v>
+        <v>0.0002657614198271158</v>
       </c>
       <c r="T8">
-        <v>0.0003073538466125098</v>
+        <v>0.0002657614198271158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H9">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I9">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J9">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N9">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O9">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P9">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q9">
-        <v>3464.96798379866</v>
+        <v>1185.492189469455</v>
       </c>
       <c r="R9">
-        <v>31184.71185418794</v>
+        <v>10669.42970522509</v>
       </c>
       <c r="S9">
-        <v>0.3598740309070578</v>
+        <v>0.2176089100021792</v>
       </c>
       <c r="T9">
-        <v>0.3598740309070577</v>
+        <v>0.2176089100021792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H10">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N10">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q10">
-        <v>3.686896713001444</v>
+        <v>4.57440020488</v>
       </c>
       <c r="R10">
-        <v>33.182070417013</v>
+        <v>41.16960184392</v>
       </c>
       <c r="S10">
-        <v>0.0003829237060341361</v>
+        <v>0.0008396767615509711</v>
       </c>
       <c r="T10">
-        <v>0.0003829237060341361</v>
+        <v>0.0008396767615509711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H11">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I11">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J11">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N11">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O11">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P11">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q11">
-        <v>1491.945207089249</v>
+        <v>1335.35180274815</v>
       </c>
       <c r="R11">
-        <v>13427.50686380324</v>
+        <v>12018.16622473335</v>
       </c>
       <c r="S11">
-        <v>0.154954486759515</v>
+        <v>0.2451171360272864</v>
       </c>
       <c r="T11">
-        <v>0.154954486759515</v>
+        <v>0.2451171360272864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H12">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I12">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J12">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N12">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q12">
-        <v>1.614482351362222</v>
+        <v>0.90228545941</v>
       </c>
       <c r="R12">
-        <v>14.53034116226</v>
+        <v>8.120569134690001</v>
       </c>
       <c r="S12">
-        <v>0.0001676812814229999</v>
+        <v>0.0001656234913035541</v>
       </c>
       <c r="T12">
-        <v>0.0001676812814229999</v>
+        <v>0.0001656234913035541</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H13">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I13">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J13">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N13">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O13">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P13">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q13">
-        <v>1890.362778981337</v>
+        <v>738.8030793211183</v>
       </c>
       <c r="R13">
-        <v>17013.26501083204</v>
+        <v>6649.227713890064</v>
       </c>
       <c r="S13">
-        <v>0.1963344181907487</v>
+        <v>0.1356146706198645</v>
       </c>
       <c r="T13">
-        <v>0.1963344181907486</v>
+        <v>0.1356146706198645</v>
       </c>
     </row>
   </sheetData>
